--- a/testes.xlsx
+++ b/testes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\Documents\EngDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E6EAC7B-D4F7-48D3-B2F3-1156CD9BDC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E8420E-EC0B-4CE0-AEB6-EDD11E570107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{565D17A2-1B43-4DAB-81DF-A0C8697A3434}"/>
   </bookViews>
@@ -39,12 +39,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>sdfdsfdsfsfsdfsdf</t>
   </si>
   <si>
     <t>sdfdsfdfsdf</t>
+  </si>
+  <si>
+    <t>dfsfgdsf</t>
+  </si>
+  <si>
+    <t>sdfsfsdfsdfsfsgvfdhgfh</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3481006-E898-43C5-9741-76724F1BF307}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +438,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
